--- a/data/Oscar RegaladoT3-2025.xlsx
+++ b/data/Oscar RegaladoT3-2025.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>65.31178180000032</v>
+        <v>72.56864644000032</v>
       </c>
     </row>
     <row r="15">
